--- a/biology/Botanique/Phlomis_lychnite/Phlomis_lychnite.xlsx
+++ b/biology/Botanique/Phlomis_lychnite/Phlomis_lychnite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phlomis lychnitis
 Le phlomis lychnite ou lychnite (Phlomis lychnitis), est une plante méditerranéenne appartenant au genre Phlomis et à la famille des Lamiacées, dont les fleurs ont une corolle zygomorphe à deux lèvres. C'est un sous-arbrisseau relativement rare, rencontré dans les garrigues, reconnaissable à ses fleurs jaunes, assez grandes, groupées en verticilles étagés.
@@ -515,17 +527,126 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Écologie et habitat
-Plante vivace (sous-arbrisseau) rencontrée dans la péninsule Ibérique et dans le sud de la France, notamment en Languedoc-Roussillon, sur sol calcaire, dans les lieux caillouteux exposés au plein soleil.
+          <t>Écologie et habitat</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Plante vivace (sous-arbrisseau) rencontrée dans la péninsule Ibérique et dans le sud de la France, notamment en Languedoc-Roussillon, sur sol calcaire, dans les lieux caillouteux exposés au plein soleil.
 Floraison : de mai à juillet
 Pollinisation : entomogame
-Dissémination : épizoochore
-Morphologie générale et végétative
-Sous-arbrisseau pouvant atteindre 65 cm, très ramifié à la base, tomenteux, formant un buisson vert grisâtre à tiges simples et érigées. Feuilles simples, en principe entières, opposées, granuleuses, à dessus grisâtre et à dessous cotonneux. Les feuilles inférieures sont nombreuses, légèrement pétiolées, longues et étroites (linéaires à oblongues). Les feuilles caulinaires sont plus courtes et légèrement plus larges.
-Morphologie florale
-Fleurs hermaphrodites groupées en verticilles étagés (de quatre à dix fleurs par verticille), chaque verticille reposant sur deux bractées foliacées sessiles. Chaque fleur porte à sa base des bractéoles linéaires et velues. Calice tubulé à cinq dents, portant de nombreux poils. Corolle jaune, bilabiée, assez grande (2 à 3 cm), avec une lèvre supérieure échancrée en forme de casque et une lèvre inférieure trilobée. Quatre étamines. Ovaire supère.
-Fruit et graines
-Le fruit est formé de quatre akènes, ou méricarpes.
+Dissémination : épizoochore</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Phlomis_lychnite</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phlomis_lychnite</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Morphologie générale et végétative</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous-arbrisseau pouvant atteindre 65 cm, très ramifié à la base, tomenteux, formant un buisson vert grisâtre à tiges simples et érigées. Feuilles simples, en principe entières, opposées, granuleuses, à dessus grisâtre et à dessous cotonneux. Les feuilles inférieures sont nombreuses, légèrement pétiolées, longues et étroites (linéaires à oblongues). Les feuilles caulinaires sont plus courtes et légèrement plus larges.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Phlomis_lychnite</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phlomis_lychnite</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Morphologie florale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fleurs hermaphrodites groupées en verticilles étagés (de quatre à dix fleurs par verticille), chaque verticille reposant sur deux bractées foliacées sessiles. Chaque fleur porte à sa base des bractéoles linéaires et velues. Calice tubulé à cinq dents, portant de nombreux poils. Corolle jaune, bilabiée, assez grande (2 à 3 cm), avec une lèvre supérieure échancrée en forme de casque et une lèvre inférieure trilobée. Quatre étamines. Ovaire supère.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Phlomis_lychnite</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phlomis_lychnite</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruit et graines</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit est formé de quatre akènes, ou méricarpes.
 </t>
         </is>
       </c>
